--- a/Pénzügyi kimutatások/2023 November pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2023 November pénzügyi kimutatás.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Financials\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A5419-5286-4A18-AB95-4F1E16D7E575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C47717-9457-485F-BE9F-6098DBC0BB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{51692768-232A-470E-BD8B-8027F257305D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51692768-232A-470E-BD8B-8027F257305D}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Megnevezések</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Tej, cipó, sajt, párizsi</t>
+  </si>
+  <si>
+    <t>Pulcsi</t>
+  </si>
+  <si>
+    <t>Burger king</t>
+  </si>
+  <si>
+    <t>Rántott húsos vekni</t>
   </si>
 </sst>
 </file>
@@ -635,7 +644,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +914,9 @@
       <c r="C25" s="27"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9">
+        <v>6591</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
@@ -913,7 +924,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="16">
         <f>SUM(C28:C32)</f>
-        <v>0</v>
+        <v>16651</v>
       </c>
       <c r="F26" s="12"/>
     </row>
@@ -925,7 +936,7 @@
       <c r="C27" s="27"/>
       <c r="D27" s="11">
         <f>F25-E26</f>
-        <v>0</v>
+        <v>-10060</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -934,8 +945,12 @@
       <c r="A28" s="17">
         <v>45250</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="26">
+        <v>2626</v>
+      </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -944,8 +959,12 @@
       <c r="A29" s="17">
         <v>45251</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="26">
+        <v>3080</v>
+      </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -954,8 +973,12 @@
       <c r="A30" s="17">
         <v>45252</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="26">
+        <v>9995</v>
+      </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -964,8 +987,12 @@
       <c r="A31" s="17">
         <v>45253</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="26">
+        <v>950</v>
+      </c>
       <c r="D31" s="12"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -985,7 +1012,9 @@
       <c r="C33" s="27"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9">
+        <v>7700</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
@@ -1005,7 +1034,7 @@
       <c r="C35" s="27"/>
       <c r="D35" s="11">
         <f>F33-E34</f>
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
